--- a/Datas/test_data.xlsx
+++ b/Datas/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\学内アルバイト_ミニDX化\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\学内アルバイト_ミニDX化\mini_DX_aporon\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317D4A46-E105-4B6E-82DF-1BD9ACB69BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED47F03E-3F8A-498C-980B-992ABE46D74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{94D7A102-4799-42E8-92CA-44607DD3A284}"/>
+    <workbookView xWindow="1830" yWindow="-14370" windowWidth="21600" windowHeight="11775" xr2:uid="{94D7A102-4799-42E8-92CA-44607DD3A284}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -641,6 +641,9 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="4">
+        <v>6000</v>
+      </c>
       <c r="H3" s="4">
         <v>10500</v>
       </c>

--- a/Datas/test_data.xlsx
+++ b/Datas/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\学内アルバイト_ミニDX化\mini_DX_aporon\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED47F03E-3F8A-498C-980B-992ABE46D74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40594552-243E-4BDE-A95C-DCECDC14549E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="-14370" windowWidth="21600" windowHeight="11775" xr2:uid="{94D7A102-4799-42E8-92CA-44607DD3A284}"/>
+    <workbookView xWindow="1395" yWindow="-14805" windowWidth="21600" windowHeight="11775" xr2:uid="{94D7A102-4799-42E8-92CA-44607DD3A284}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>製品規格名称</t>
     <rPh sb="0" eb="2">
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>test4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -183,7 +187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +202,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,163 +520,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585DA1D1-EE18-455E-8237-D7D5E40AE5E6}">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="54.296875" customWidth="1"/>
-    <col min="2" max="2" width="62.8984375" customWidth="1"/>
+    <col min="2" max="3" width="62.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="5"/>
+      <c r="D1" s="2">
         <v>45901</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E1" s="3">
         <v>45902</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <v>45903</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <v>45904</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>45905</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <v>45906</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="3">
         <v>45907</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>45908</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <v>45909</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M1" s="3">
         <v>45910</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <v>45911</v>
       </c>
-      <c r="N1" s="3">
+      <c r="O1" s="3">
         <v>45912</v>
       </c>
-      <c r="O1" s="3">
+      <c r="P1" s="3">
         <v>45913</v>
       </c>
-      <c r="P1" s="3">
+      <c r="Q1" s="3">
         <v>45914</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="R1" s="3">
         <v>45915</v>
       </c>
-      <c r="R1" s="3">
+      <c r="S1" s="3">
         <v>45916</v>
       </c>
-      <c r="S1" s="3">
+      <c r="T1" s="3">
         <v>45917</v>
       </c>
-      <c r="T1" s="3">
+      <c r="U1" s="3">
         <v>45918</v>
       </c>
-      <c r="U1" s="3">
+      <c r="V1" s="3">
         <v>45919</v>
       </c>
-      <c r="V1" s="3">
+      <c r="W1" s="3">
         <v>45920</v>
       </c>
-      <c r="W1" s="3">
+      <c r="X1" s="3">
         <v>45921</v>
       </c>
-      <c r="X1" s="3">
+      <c r="Y1" s="3">
         <v>45922</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Z1" s="3">
         <v>45923</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="AA1" s="3">
         <v>45924</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AB1" s="3">
         <v>45925</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AC1" s="3">
         <v>45926</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AD1" s="3">
         <v>45927</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AE1" s="3">
         <v>45928</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AF1" s="3">
         <v>45929</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AG1" s="3">
         <v>45930</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>14000</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>6000</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>10500</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>14000</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="4">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="4">
         <v>13000</v>
       </c>
     </row>
